--- a/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.902153322417734</v>
+        <v>-3.914786779494143</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.945404105256459</v>
+        <v>6.397720198072612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.907577961158678</v>
+        <v>-5.164112461336474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.74730429144937</v>
+        <v>-6.601921223157664</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05446573311937419</v>
+        <v>-0.07292282948011973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1044877412506368</v>
+        <v>0.1165229353050745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.07573152973201289</v>
+        <v>-0.08044441989638611</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.06045136899336585</v>
+        <v>-0.06891150387050088</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.8485279715975</v>
+        <v>8.798470164132009</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.71816021323925</v>
+        <v>18.73014009185164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.515815387123487</v>
+        <v>7.968416637820998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.801033408235798</v>
+        <v>6.164238876964834</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1922519851821117</v>
+        <v>0.185410702750302</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.392686145409552</v>
+        <v>0.4046140754167629</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1501283876344645</v>
+        <v>0.1349295301957263</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.06530811367722442</v>
+        <v>0.06933149467324025</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.004797043480391</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9760339749519842</v>
+        <v>0.9760339749519953</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1148417885985945</v>
@@ -749,7 +749,7 @@
         <v>0.0585233270771767</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01033307794347216</v>
+        <v>0.01033307794347228</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.123604777281145</v>
+        <v>1.277332460132845</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.788780021722324</v>
+        <v>3.00224769122858</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.64744335751182</v>
+        <v>-0.991717501400094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.053983737880101</v>
+        <v>-2.290405396787824</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03509183526130862</v>
+        <v>0.01902068250133246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05359943818983789</v>
+        <v>0.04319417634841775</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02369134445784441</v>
+        <v>-0.01407974868437915</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02101068860018422</v>
+        <v>-0.02389463556159989</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.18674066557902</v>
+        <v>12.28912300861503</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.55078480204063</v>
+        <v>13.26999539662936</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.649579806229893</v>
+        <v>9.134111862639813</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.591462859068562</v>
+        <v>4.577246122413986</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2084886332757195</v>
+        <v>0.2054903372691652</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2086005313686038</v>
+        <v>0.2052042993525307</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1458686292884623</v>
+        <v>0.1388398602026002</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05026140429034956</v>
+        <v>0.05015275624069378</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.932997507433147</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.919808958034375</v>
+        <v>1.919808958034397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1774149752297239</v>
@@ -849,7 +849,7 @@
         <v>0.09757554661143575</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.02036271688559797</v>
+        <v>0.02036271688559821</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.760000267153522</v>
+        <v>5.951275960444953</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.599275193764803</v>
+        <v>2.626610083870439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.353393629472986</v>
+        <v>2.22508777130337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3658334965834197</v>
+        <v>-0.6504366761839782</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08861258622923586</v>
+        <v>0.09243087361845324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03413416806678979</v>
+        <v>0.03381309730395752</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03169649762744961</v>
+        <v>0.02929915459414425</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.003588613260637051</v>
+        <v>-0.006869919233514567</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.87873647453745</v>
+        <v>16.39155702402211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.97223507304486</v>
+        <v>11.88713524019312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.85623204978422</v>
+        <v>11.56345578663583</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.621450000191587</v>
+        <v>4.292590009017438</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.271168128816189</v>
+        <v>0.2807181432676455</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1716524967660281</v>
+        <v>0.1656406352975391</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1737416959130534</v>
+        <v>0.1686982880849831</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05007334048137212</v>
+        <v>0.04637002794146138</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.272087488282942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.296791426572108</v>
+        <v>1.296791426572141</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1980087712223733</v>
@@ -949,7 +949,7 @@
         <v>0.1304011923757544</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01366225002603549</v>
+        <v>0.01366225002603584</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.487213893088378</v>
+        <v>7.089528776952997</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.548769009788878</v>
+        <v>5.230510920737276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.283347089826942</v>
+        <v>4.171065612804504</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.6648081939387973</v>
+        <v>-0.622384039264487</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09784176545620345</v>
+        <v>0.1079904946601089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07363801499897506</v>
+        <v>0.0694574448879364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05725127502443043</v>
+        <v>0.05639111851096737</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.006896798729962017</v>
+        <v>-0.006457359553640371</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.50138318842599</v>
+        <v>18.24617868743385</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.20251343254935</v>
+        <v>15.04471257566767</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.04608749552319</v>
+        <v>14.03530805952036</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.518977606657568</v>
+        <v>3.509507494816742</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3043360116353994</v>
+        <v>0.3003971436664108</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2162580060601455</v>
+        <v>0.2172800900803197</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2069864769291099</v>
+        <v>0.2046440590050756</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03768935818641889</v>
+        <v>0.03797141077319137</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.82955918050394</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.790650998110444</v>
+        <v>2.790650998110455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05715434237165691</v>
@@ -1049,7 +1049,7 @@
         <v>0.06195062820339729</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.02978004762916063</v>
+        <v>0.02978004762916075</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.553944191488208</v>
+        <v>-2.640914619131142</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.158802329098036</v>
+        <v>-1.184214694433952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4272961408079474</v>
+        <v>-0.659436416961159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5907261670378916</v>
+        <v>0.8414113400272732</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03388014562991268</v>
+        <v>-0.03530314082700833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01248188179379805</v>
+        <v>-0.01504216420759559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.004762920962945055</v>
+        <v>-0.007858516912123909</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.00619500019663894</v>
+        <v>0.008825871584341767</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.674486530103435</v>
+        <v>10.42563944356592</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.29153614064927</v>
+        <v>10.3948701429921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.07258738199739</v>
+        <v>10.61015691955477</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.127660698843819</v>
+        <v>5.301190133439699</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1461483407200941</v>
+        <v>0.1563025618462569</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1402666330895919</v>
+        <v>0.1402573426087357</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1352468955908403</v>
+        <v>0.1425014363413649</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.05555393853275684</v>
+        <v>0.05791587176230845</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.589556396367458</v>
+        <v>-1.393536131855823</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.1281388686324193</v>
+        <v>-0.369735971587456</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.036526066247971</v>
+        <v>-1.809017926224185</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.8551581382350046</v>
+        <v>-0.9897206162224713</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.00833558108719199</v>
+        <v>-0.01822777657737579</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.001556010596605779</v>
+        <v>-0.003334615900242942</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02431101850169612</v>
+        <v>-0.02180402764111591</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.008781962338718618</v>
+        <v>-0.01020525589768072</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.43291087281829</v>
+        <v>11.72183923215898</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.10356180213996</v>
+        <v>11.41863907231116</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.831034652505238</v>
+        <v>9.939754288274795</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.643477799179672</v>
+        <v>3.722295935824113</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1808310222887654</v>
+        <v>0.1720980468018645</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1412290244498651</v>
+        <v>0.1478116267708175</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.12758568031745</v>
+        <v>0.1247889545722084</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0391598431988515</v>
+        <v>0.03954605656743788</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.59204685169461</v>
+        <v>-6.077091035352051</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.564617121792986</v>
+        <v>-5.083225189559304</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.38987496282967</v>
+        <v>-9.684535461169157</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.495537127365254</v>
+        <v>-2.248981870351573</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.05787821850038282</v>
+        <v>-0.07415191899627945</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.06378059619806908</v>
+        <v>-0.0574217624079703</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1197774297918579</v>
+        <v>-0.1128113407770206</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02545373769243089</v>
+        <v>-0.02303180143549456</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.34873916310842</v>
+        <v>8.831356845464974</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.340297659375084</v>
+        <v>7.461836838314244</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.278545863766504</v>
+        <v>2.431557317398853</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.710565223187526</v>
+        <v>2.018049363898153</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1452273481805458</v>
+        <v>0.1229661017096146</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09149160946458149</v>
+        <v>0.09474593586181261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02897205216929071</v>
+        <v>0.03044442444647837</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.01786903205797219</v>
+        <v>0.02146321520378025</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.021794031463165</v>
+        <v>5.438397801642045</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.332675860874071</v>
+        <v>6.389658348181006</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.787233816489573</v>
+        <v>2.85142131594296</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3552419644812814</v>
+        <v>0.325074811368826</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07901508225560805</v>
+        <v>0.08407349370273889</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.087337673760281</v>
+        <v>0.08953727569212207</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03821618311202692</v>
+        <v>0.03911584593108719</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.003790307431897135</v>
+        <v>0.003408966912881734</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.08073231960078</v>
+        <v>10.03829552672623</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.62318325965496</v>
+        <v>10.72015296244258</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.218447276188924</v>
+        <v>7.146413091629776</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.49556356706654</v>
+        <v>2.523215155364652</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1628238367953258</v>
+        <v>0.1626679325312806</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1519553449422708</v>
+        <v>0.1540146661875056</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1014281152523454</v>
+        <v>0.1004086784628799</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02666277463304059</v>
+        <v>0.02701347794326522</v>
       </c>
     </row>
     <row r="28">
